--- a/user_history/Product BarlockItmens.xlsx
+++ b/user_history/Product BarlockItmens.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="67">
   <si>
     <t>Priority</t>
   </si>
@@ -284,20 +284,14 @@
     <t>Hacer pruebas unitarias de los servicios</t>
   </si>
   <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Estimación</t>
-  </si>
-  <si>
-    <t>Valor</t>
+    <t>Amarillo (Estan implementados)            Verde(No implementado)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,22 +307,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -343,15 +346,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,900 +642,728 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K52"/>
+  <dimension ref="A2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K52"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>68</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3">
+      <c r="E4" s="2">
         <v>44275</v>
       </c>
-      <c r="G4" s="3">
+      <c r="F4" s="2">
         <v>44279</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3">
+      <c r="E5" s="2">
         <v>44276</v>
       </c>
-      <c r="G5" s="3">
+      <c r="F5" s="2">
         <v>44280</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3">
+      <c r="E7" s="2">
         <v>44276</v>
       </c>
-      <c r="G7" s="3">
+      <c r="F7" s="2">
         <v>44280</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
+      <c r="H7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3">
+      <c r="E8" s="2">
         <v>44279</v>
       </c>
-      <c r="G8" s="3">
+      <c r="F8" s="2">
         <v>44279</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3">
+      <c r="E9" s="2">
         <v>44280</v>
       </c>
-      <c r="G9" s="3">
+      <c r="F9" s="2">
         <v>44280</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="3">
+      <c r="E10" s="2">
         <v>44281</v>
       </c>
-      <c r="G10" s="3">
+      <c r="F10" s="2">
         <v>44281</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="4" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="3">
+      <c r="E11" s="2">
         <v>44279</v>
       </c>
-      <c r="G11" s="3">
+      <c r="F11" s="2">
         <v>44279</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="4" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="3">
+      <c r="E12" s="2">
         <v>44279</v>
       </c>
-      <c r="G12" s="3">
+      <c r="F12" s="2">
         <v>44279</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="3">
+      <c r="E14" s="2">
         <v>44276</v>
       </c>
-      <c r="G14" s="3">
+      <c r="F14" s="2">
         <v>44280</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
+      <c r="H14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="3">
+      <c r="E15" s="2">
         <v>44280</v>
       </c>
-      <c r="G15" s="3">
+      <c r="F15" s="2">
         <v>44280</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="3">
+      <c r="E16" s="2">
         <v>44282</v>
       </c>
-      <c r="G16" s="3">
+      <c r="F16" s="2">
         <v>44282</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="4" t="s">
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="3">
+      <c r="E17" s="2">
         <v>44281</v>
       </c>
-      <c r="G17" s="3">
+      <c r="F17" s="2">
         <v>44281</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="4" t="s">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="3">
+      <c r="E18" s="2">
         <v>44281</v>
       </c>
-      <c r="G18" s="3">
+      <c r="F18" s="2">
         <v>44281</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="3">
+      <c r="E20" s="2">
         <v>44282</v>
       </c>
-      <c r="G20" s="3">
+      <c r="F20" s="2">
         <v>44282</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
+      <c r="H20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="3">
+      <c r="E21" s="2">
         <v>44283</v>
       </c>
-      <c r="G21" s="3">
+      <c r="F21" s="2">
         <v>44283</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="4" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="D23" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="4" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="C26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="H26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="D27" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="4" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="D29" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-      <c r="C30" s="4" t="s">
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="C30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="C32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="D34" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="4" t="s">
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="C35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="4" t="s">
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="2">
+        <v>44281</v>
+      </c>
+      <c r="F36" s="2">
+        <v>44283</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44281</v>
+      </c>
+      <c r="F37" s="2">
+        <v>44283</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44281</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44283</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44282</v>
+      </c>
+      <c r="F42" s="2">
+        <v>44282</v>
+      </c>
+      <c r="G42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="2">
+        <v>44282</v>
+      </c>
+      <c r="F48" s="2">
+        <v>44282</v>
+      </c>
+      <c r="G48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="C49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
-      <c r="C41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-      <c r="C42" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42" s="3">
-        <v>44282</v>
-      </c>
-      <c r="G42" s="3">
-        <v>44282</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-      <c r="C47" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
-      <c r="C48" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="D52" t="s">
         <v>61</v>
       </c>
-      <c r="F48" s="3">
-        <v>44282</v>
-      </c>
-      <c r="G48" s="3">
-        <v>44282</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
